--- a/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
+++ b/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E97F82-9914-4755-BDC2-D47D95F33D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A732A-8B82-4255-BF6E-9E5EDA005859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
+++ b/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A732A-8B82-4255-BF6E-9E5EDA005859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B22B1D-B655-430D-BAA1-92EB2CF63345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1942">
   <si>
     <t>Name</t>
   </si>
@@ -5492,6 +5492,360 @@
   </si>
   <si>
     <t>7019616658</t>
+  </si>
+  <si>
+    <t>RAJIV GANDHI INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>8310194610</t>
+  </si>
+  <si>
+    <t>darshankumar.1796@gmail.com</t>
+  </si>
+  <si>
+    <t>Darshankumar S</t>
+  </si>
+  <si>
+    <t>7899422761</t>
+  </si>
+  <si>
+    <t>keerthi2152004@gmail.com</t>
+  </si>
+  <si>
+    <t>Keerthana R</t>
+  </si>
+  <si>
+    <t>6362102544</t>
+  </si>
+  <si>
+    <t>meghaswapna90@gmail.com</t>
+  </si>
+  <si>
+    <t>T meghaswapna</t>
+  </si>
+  <si>
+    <t>8867876688</t>
+  </si>
+  <si>
+    <t>sinchanacs2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Sinchana C S</t>
+  </si>
+  <si>
+    <t>9353647767</t>
+  </si>
+  <si>
+    <t>spoorthibr9@gmail.com</t>
+  </si>
+  <si>
+    <t>Spoorthi B R</t>
+  </si>
+  <si>
+    <t>8951560100</t>
+  </si>
+  <si>
+    <t>deepaishivanaykar@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepa Shivanaykar</t>
+  </si>
+  <si>
+    <t>9741181009</t>
+  </si>
+  <si>
+    <t>chinthanac688@gmail.com</t>
+  </si>
+  <si>
+    <t>Chinthana C</t>
+  </si>
+  <si>
+    <t>8867358732</t>
+  </si>
+  <si>
+    <t>abhiboss6765@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahesh D</t>
+  </si>
+  <si>
+    <t>8088194342</t>
+  </si>
+  <si>
+    <t>chiragta2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Chirag T A</t>
+  </si>
+  <si>
+    <t>9900234735</t>
+  </si>
+  <si>
+    <t>kruthikanskruthika@gmail.com</t>
+  </si>
+  <si>
+    <t>Kruthika N S</t>
+  </si>
+  <si>
+    <t>7026862281</t>
+  </si>
+  <si>
+    <t>Shreyamk691@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreya M K</t>
+  </si>
+  <si>
+    <t>8310861165</t>
+  </si>
+  <si>
+    <t>kavanaashetty18@gmail.com</t>
+  </si>
+  <si>
+    <t>KavanaBR</t>
+  </si>
+  <si>
+    <t>7411354930</t>
+  </si>
+  <si>
+    <t>latakanavalli914@gmail.com</t>
+  </si>
+  <si>
+    <t>Lata Kanavalli</t>
+  </si>
+  <si>
+    <t>7019622480</t>
+  </si>
+  <si>
+    <t>shoaibzeeshan09@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammed shoaib zeeshan</t>
+  </si>
+  <si>
+    <t>6362372694</t>
+  </si>
+  <si>
+    <t>nagendrachandu9901@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandana N</t>
+  </si>
+  <si>
+    <t>8088924837</t>
+  </si>
+  <si>
+    <t>patilankita3064@gmail.com</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>9611893194</t>
+  </si>
+  <si>
+    <t>kavanac105@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavana C</t>
+  </si>
+  <si>
+    <t>7483055066</t>
+  </si>
+  <si>
+    <t>nithinmr222@gmail.com</t>
+  </si>
+  <si>
+    <t>Nithin M R</t>
+  </si>
+  <si>
+    <t>8867162792</t>
+  </si>
+  <si>
+    <t>Kurahatti2@gmail.com</t>
+  </si>
+  <si>
+    <t>Lavanya N Kurahatti</t>
+  </si>
+  <si>
+    <t>9481616491</t>
+  </si>
+  <si>
+    <t>bssanjanasanju@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjana.B.S</t>
+  </si>
+  <si>
+    <t>7619675164</t>
+  </si>
+  <si>
+    <t>sidrammainalle224@gmail.com</t>
+  </si>
+  <si>
+    <t>Sidram</t>
+  </si>
+  <si>
+    <t>7499106751</t>
+  </si>
+  <si>
+    <t>Shivarajvijapure91@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivaraj Hugar</t>
+  </si>
+  <si>
+    <t>8073322019</t>
+  </si>
+  <si>
+    <t>hitheshkhhitheshkh@gmail.com</t>
+  </si>
+  <si>
+    <t>Hithesh</t>
+  </si>
+  <si>
+    <t>8792023715</t>
+  </si>
+  <si>
+    <t>amitmarathaa@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>7795846890</t>
+  </si>
+  <si>
+    <t>abhishek.a98481557@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>8660741632</t>
+  </si>
+  <si>
+    <t>afrazrafia1r2@gmail.com</t>
+  </si>
+  <si>
+    <t>Husain Rafi</t>
+  </si>
+  <si>
+    <t>7483040588</t>
+  </si>
+  <si>
+    <t>1MJ22EC073@mvjce.edu.in</t>
+  </si>
+  <si>
+    <t>KARTIK AGNIHOTRI</t>
+  </si>
+  <si>
+    <t>8247615947</t>
+  </si>
+  <si>
+    <t>v.vamsi1307@gmail.com</t>
+  </si>
+  <si>
+    <t>Veerapalli Vamsi</t>
+  </si>
+  <si>
+    <t>9449744751</t>
+  </si>
+  <si>
+    <t>surajvernekar24@gmail.com</t>
+  </si>
+  <si>
+    <t>Suraj Vernekar</t>
+  </si>
+  <si>
+    <t>6364788551</t>
+  </si>
+  <si>
+    <t>krishnabiradar398@gmail.com</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>8660688221</t>
+  </si>
+  <si>
+    <t>vk7573066@gmail.com</t>
+  </si>
+  <si>
+    <t>VEERESH</t>
+  </si>
+  <si>
+    <t>8660544042</t>
+  </si>
+  <si>
+    <t>psatyasaimohan257@gmail.com</t>
+  </si>
+  <si>
+    <t>P Satya Sai Mohan</t>
+  </si>
+  <si>
+    <t>8095361846</t>
+  </si>
+  <si>
+    <t>nehamanded@gmail.com</t>
+  </si>
+  <si>
+    <t>Neha Rajendra Manded</t>
+  </si>
+  <si>
+    <t>9972351442</t>
+  </si>
+  <si>
+    <t>basavarajmenasangi4140@gmail.com</t>
+  </si>
+  <si>
+    <t>Basavaraj Menasangi</t>
+  </si>
+  <si>
+    <t>7676263204</t>
+  </si>
+  <si>
+    <t>basavarajbenkond@gmail.com</t>
+  </si>
+  <si>
+    <t>Basavaraj Benkond</t>
+  </si>
+  <si>
+    <t>8660337809</t>
+  </si>
+  <si>
+    <t>4pa22ec040@pace.edu.in</t>
+  </si>
+  <si>
+    <t>N Charita Jain</t>
+  </si>
+  <si>
+    <t>7338427944</t>
+  </si>
+  <si>
+    <t>naikjitin46@gmail.com</t>
+  </si>
+  <si>
+    <t>Jitin Naik</t>
+  </si>
+  <si>
+    <t>6363850042</t>
+  </si>
+  <si>
+    <t>busarisahana@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahana Busari</t>
+  </si>
+  <si>
+    <t>7026211281</t>
+  </si>
+  <si>
+    <t>shettysachin1911@gmail.com</t>
+  </si>
+  <si>
+    <t>Sachin C Shetty</t>
   </si>
 </sst>
 </file>
@@ -5854,9 +6208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G572"/>
+  <dimension ref="A1:G611"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
+      <selection activeCell="K607" sqref="K607"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19019,6 +19375,903 @@
         <v>13</v>
       </c>
     </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D573" t="s">
+        <v>42</v>
+      </c>
+      <c r="E573" t="s">
+        <v>11</v>
+      </c>
+      <c r="F573" t="s">
+        <v>12</v>
+      </c>
+      <c r="G573" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D574" t="s">
+        <v>58</v>
+      </c>
+      <c r="E574" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" t="s">
+        <v>12</v>
+      </c>
+      <c r="G574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E575" t="s">
+        <v>11</v>
+      </c>
+      <c r="F575" t="s">
+        <v>12</v>
+      </c>
+      <c r="G575" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A576" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D576" t="s">
+        <v>569</v>
+      </c>
+      <c r="E576" t="s">
+        <v>11</v>
+      </c>
+      <c r="F576" t="s">
+        <v>12</v>
+      </c>
+      <c r="G576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D577" t="s">
+        <v>58</v>
+      </c>
+      <c r="E577" t="s">
+        <v>11</v>
+      </c>
+      <c r="F577" t="s">
+        <v>12</v>
+      </c>
+      <c r="G577" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A578" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D578" t="s">
+        <v>58</v>
+      </c>
+      <c r="E578" t="s">
+        <v>11</v>
+      </c>
+      <c r="F578" t="s">
+        <v>12</v>
+      </c>
+      <c r="G578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D579" t="s">
+        <v>54</v>
+      </c>
+      <c r="E579" t="s">
+        <v>11</v>
+      </c>
+      <c r="F579" t="s">
+        <v>12</v>
+      </c>
+      <c r="G579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D580" t="s">
+        <v>199</v>
+      </c>
+      <c r="E580" t="s">
+        <v>18</v>
+      </c>
+      <c r="F580" t="s">
+        <v>12</v>
+      </c>
+      <c r="G580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D581" t="s">
+        <v>17</v>
+      </c>
+      <c r="E581" t="s">
+        <v>18</v>
+      </c>
+      <c r="F581" t="s">
+        <v>12</v>
+      </c>
+      <c r="G581" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A582" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D582" t="s">
+        <v>997</v>
+      </c>
+      <c r="E582" t="s">
+        <v>18</v>
+      </c>
+      <c r="F582" t="s">
+        <v>12</v>
+      </c>
+      <c r="G582" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D583" t="s">
+        <v>214</v>
+      </c>
+      <c r="E583" t="s">
+        <v>18</v>
+      </c>
+      <c r="F583" t="s">
+        <v>12</v>
+      </c>
+      <c r="G583" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A584" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D584" t="s">
+        <v>26</v>
+      </c>
+      <c r="E584" t="s">
+        <v>11</v>
+      </c>
+      <c r="F584" t="s">
+        <v>12</v>
+      </c>
+      <c r="G584" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A585" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E585" t="s">
+        <v>11</v>
+      </c>
+      <c r="F585" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A586" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D586" t="s">
+        <v>183</v>
+      </c>
+      <c r="E586" t="s">
+        <v>11</v>
+      </c>
+      <c r="F586" t="s">
+        <v>12</v>
+      </c>
+      <c r="G586" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D587" t="s">
+        <v>50</v>
+      </c>
+      <c r="E587" t="s">
+        <v>11</v>
+      </c>
+      <c r="F587" t="s">
+        <v>12</v>
+      </c>
+      <c r="G587" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D588" t="s">
+        <v>137</v>
+      </c>
+      <c r="E588" t="s">
+        <v>18</v>
+      </c>
+      <c r="F588" t="s">
+        <v>12</v>
+      </c>
+      <c r="G588" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D589" t="s">
+        <v>17</v>
+      </c>
+      <c r="E589" t="s">
+        <v>11</v>
+      </c>
+      <c r="F589" t="s">
+        <v>12</v>
+      </c>
+      <c r="G589" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D590" t="s">
+        <v>129</v>
+      </c>
+      <c r="E590" t="s">
+        <v>18</v>
+      </c>
+      <c r="F590" t="s">
+        <v>12</v>
+      </c>
+      <c r="G590" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A591" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E591" t="s">
+        <v>11</v>
+      </c>
+      <c r="F591" t="s">
+        <v>12</v>
+      </c>
+      <c r="G591" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A592" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D592" t="s">
+        <v>489</v>
+      </c>
+      <c r="E592" t="s">
+        <v>11</v>
+      </c>
+      <c r="F592" t="s">
+        <v>12</v>
+      </c>
+      <c r="G592" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D593" t="s">
+        <v>611</v>
+      </c>
+      <c r="E593" t="s">
+        <v>11</v>
+      </c>
+      <c r="F593" t="s">
+        <v>12</v>
+      </c>
+      <c r="G593" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D594" t="s">
+        <v>46</v>
+      </c>
+      <c r="E594" t="s">
+        <v>11</v>
+      </c>
+      <c r="F594" t="s">
+        <v>12</v>
+      </c>
+      <c r="G594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A595" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D595" t="s">
+        <v>416</v>
+      </c>
+      <c r="E595" t="s">
+        <v>11</v>
+      </c>
+      <c r="F595" t="s">
+        <v>12</v>
+      </c>
+      <c r="G595" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A596" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D596" t="s">
+        <v>416</v>
+      </c>
+      <c r="E596" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596" t="s">
+        <v>12</v>
+      </c>
+      <c r="G596" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A597" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D597" t="s">
+        <v>406</v>
+      </c>
+      <c r="E597" t="s">
+        <v>11</v>
+      </c>
+      <c r="F597" t="s">
+        <v>12</v>
+      </c>
+      <c r="G597" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D598" t="s">
+        <v>46</v>
+      </c>
+      <c r="E598" t="s">
+        <v>11</v>
+      </c>
+      <c r="F598" t="s">
+        <v>12</v>
+      </c>
+      <c r="G598" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D599" t="s">
+        <v>416</v>
+      </c>
+      <c r="E599" t="s">
+        <v>11</v>
+      </c>
+      <c r="F599" t="s">
+        <v>12</v>
+      </c>
+      <c r="G599" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D600" t="s">
+        <v>10</v>
+      </c>
+      <c r="E600" t="s">
+        <v>11</v>
+      </c>
+      <c r="F600" t="s">
+        <v>12</v>
+      </c>
+      <c r="G600" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A601" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D601" t="s">
+        <v>187</v>
+      </c>
+      <c r="E601" t="s">
+        <v>11</v>
+      </c>
+      <c r="F601" t="s">
+        <v>12</v>
+      </c>
+      <c r="G601" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A602" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D602" t="s">
+        <v>17</v>
+      </c>
+      <c r="E602" t="s">
+        <v>18</v>
+      </c>
+      <c r="F602" t="s">
+        <v>12</v>
+      </c>
+      <c r="G602" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D603" t="s">
+        <v>535</v>
+      </c>
+      <c r="E603" t="s">
+        <v>11</v>
+      </c>
+      <c r="F603" t="s">
+        <v>12</v>
+      </c>
+      <c r="G603" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D604" t="s">
+        <v>199</v>
+      </c>
+      <c r="E604" t="s">
+        <v>18</v>
+      </c>
+      <c r="F604" t="s">
+        <v>12</v>
+      </c>
+      <c r="G604" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D605" t="s">
+        <v>10</v>
+      </c>
+      <c r="E605" t="s">
+        <v>11</v>
+      </c>
+      <c r="F605" t="s">
+        <v>12</v>
+      </c>
+      <c r="G605" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E606" t="s">
+        <v>11</v>
+      </c>
+      <c r="F606" t="s">
+        <v>12</v>
+      </c>
+      <c r="G606" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D607" t="s">
+        <v>50</v>
+      </c>
+      <c r="E607" t="s">
+        <v>18</v>
+      </c>
+      <c r="F607" t="s">
+        <v>12</v>
+      </c>
+      <c r="G607" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A608" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D608" t="s">
+        <v>10</v>
+      </c>
+      <c r="E608" t="s">
+        <v>11</v>
+      </c>
+      <c r="F608" t="s">
+        <v>12</v>
+      </c>
+      <c r="G608" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D609" t="s">
+        <v>187</v>
+      </c>
+      <c r="E609" t="s">
+        <v>11</v>
+      </c>
+      <c r="F609" t="s">
+        <v>12</v>
+      </c>
+      <c r="G609" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A610" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E610" t="s">
+        <v>18</v>
+      </c>
+      <c r="F610" t="s">
+        <v>12</v>
+      </c>
+      <c r="G610" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E611" t="s">
+        <v>18</v>
+      </c>
+      <c r="F611" t="s">
+        <v>12</v>
+      </c>
+      <c r="G611" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
+++ b/VTU EV Internship Offer Letters/jan_shortlisted_applicants_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B22B1D-B655-430D-BAA1-92EB2CF63345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D606CC-4A81-4163-81FF-861BB32D8C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="2049">
   <si>
     <t>Name</t>
   </si>
@@ -5846,6 +5846,327 @@
   </si>
   <si>
     <t>Sachin C Shetty</t>
+  </si>
+  <si>
+    <t>Shashidhar Ashok Hallur</t>
+  </si>
+  <si>
+    <t>shashidharhallur@gmail.com</t>
+  </si>
+  <si>
+    <t>9844179590</t>
+  </si>
+  <si>
+    <t>Prajwal N</t>
+  </si>
+  <si>
+    <t>prajwalnagraj19@gmail.com</t>
+  </si>
+  <si>
+    <t>8951558923</t>
+  </si>
+  <si>
+    <t>Chandana S G</t>
+  </si>
+  <si>
+    <t>gummanalchandanas@gmail.com</t>
+  </si>
+  <si>
+    <t>6363765754</t>
+  </si>
+  <si>
+    <t>Shivaprasad Savalagi</t>
+  </si>
+  <si>
+    <t>savalagishivaprasad537@gmail.com</t>
+  </si>
+  <si>
+    <t>8310069994</t>
+  </si>
+  <si>
+    <t>Sandeep sl</t>
+  </si>
+  <si>
+    <t>Chintusandeep904@gmail.com</t>
+  </si>
+  <si>
+    <t>7204558161</t>
+  </si>
+  <si>
+    <t>Priyanka T Madiwalar</t>
+  </si>
+  <si>
+    <t>priyankatmadiwalar@gmail.com</t>
+  </si>
+  <si>
+    <t>6362370029</t>
+  </si>
+  <si>
+    <t>Lolakshi K M</t>
+  </si>
+  <si>
+    <t>lolakshikm948@gmail.com</t>
+  </si>
+  <si>
+    <t>8277494911</t>
+  </si>
+  <si>
+    <t>Shweta Ashok Patil</t>
+  </si>
+  <si>
+    <t>patils75846@gmail.com</t>
+  </si>
+  <si>
+    <t>8088992039</t>
+  </si>
+  <si>
+    <t>Bindushri</t>
+  </si>
+  <si>
+    <t>binduagalur@gmail.com</t>
+  </si>
+  <si>
+    <t>9035361969</t>
+  </si>
+  <si>
+    <t>Shreya jitendra diwanji</t>
+  </si>
+  <si>
+    <t>shreyadiwanji04@gmail.com</t>
+  </si>
+  <si>
+    <t>8073571154</t>
+  </si>
+  <si>
+    <t>Tushitha.M</t>
+  </si>
+  <si>
+    <t>tushitham530@gmail.com</t>
+  </si>
+  <si>
+    <t>6363959770</t>
+  </si>
+  <si>
+    <t>Suchitra dhanyal</t>
+  </si>
+  <si>
+    <t>suchitradhanyal@gmail.com</t>
+  </si>
+  <si>
+    <t>7022928796</t>
+  </si>
+  <si>
+    <t>G Rahul</t>
+  </si>
+  <si>
+    <t>rahul8951884677@gmail.com</t>
+  </si>
+  <si>
+    <t>8951884677</t>
+  </si>
+  <si>
+    <t>VIDYA</t>
+  </si>
+  <si>
+    <t>brvidya158@gmail.com</t>
+  </si>
+  <si>
+    <t>9741300977</t>
+  </si>
+  <si>
+    <t>Ganesh t</t>
+  </si>
+  <si>
+    <t>ganeshts4355@gmail.com</t>
+  </si>
+  <si>
+    <t>7676648942</t>
+  </si>
+  <si>
+    <t>Karthika k</t>
+  </si>
+  <si>
+    <t>karthika9758@gmail.com</t>
+  </si>
+  <si>
+    <t>7483909758</t>
+  </si>
+  <si>
+    <t>ROHITH V</t>
+  </si>
+  <si>
+    <t>vrohith262@gmail.com</t>
+  </si>
+  <si>
+    <t>7483383184</t>
+  </si>
+  <si>
+    <t>Yashwanth Y S</t>
+  </si>
+  <si>
+    <t>yashugowda544@gmail.com</t>
+  </si>
+  <si>
+    <t>8310500301</t>
+  </si>
+  <si>
+    <t>Tarappa</t>
+  </si>
+  <si>
+    <t>tarappamsg211@gmail.com</t>
+  </si>
+  <si>
+    <t>6364770842</t>
+  </si>
+  <si>
+    <t>Veenatai</t>
+  </si>
+  <si>
+    <t>veenafakire54@gmail.com</t>
+  </si>
+  <si>
+    <t>7624906965</t>
+  </si>
+  <si>
+    <t>Varun N M</t>
+  </si>
+  <si>
+    <t>varunam12345@gmail.com</t>
+  </si>
+  <si>
+    <t>9606693681</t>
+  </si>
+  <si>
+    <t>Anusha PK</t>
+  </si>
+  <si>
+    <t>anushapura@gmail.com</t>
+  </si>
+  <si>
+    <t>7338384353</t>
+  </si>
+  <si>
+    <t>Dhanamma pawale</t>
+  </si>
+  <si>
+    <t>girijagirija817@gmail.com</t>
+  </si>
+  <si>
+    <t>7348845584</t>
+  </si>
+  <si>
+    <t>Chandana G P</t>
+  </si>
+  <si>
+    <t>chandanagp1312@gmail.com</t>
+  </si>
+  <si>
+    <t>7411118933</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>sdsagar001@gmail.com</t>
+  </si>
+  <si>
+    <t>9900764883</t>
+  </si>
+  <si>
+    <t>Taranum Hukkeri</t>
+  </si>
+  <si>
+    <t>taranumhukkeri@gmail.com</t>
+  </si>
+  <si>
+    <t>8792620230</t>
+  </si>
+  <si>
+    <t>Shravya K S</t>
+  </si>
+  <si>
+    <t>shravyab.22.beee@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>9164572484</t>
+  </si>
+  <si>
+    <t>SUHEEB AHAMED</t>
+  </si>
+  <si>
+    <t>Suheebahmed511@gmail.com</t>
+  </si>
+  <si>
+    <t>6364284763</t>
+  </si>
+  <si>
+    <t>Reehaan Baig</t>
+  </si>
+  <si>
+    <t>mirzarbaig227@gmail.com</t>
+  </si>
+  <si>
+    <t>7892570518</t>
+  </si>
+  <si>
+    <t>RUDRESH H E</t>
+  </si>
+  <si>
+    <t>rudrarudreshhe@gmail.com</t>
+  </si>
+  <si>
+    <t>7019522414</t>
+  </si>
+  <si>
+    <t>Jyoti Anand Kadewadi</t>
+  </si>
+  <si>
+    <t>kadewadijyoti@gmail.com</t>
+  </si>
+  <si>
+    <t>6363759761</t>
+  </si>
+  <si>
+    <t>Adarsh patne</t>
+  </si>
+  <si>
+    <t>adarshpatne4@gmail.com</t>
+  </si>
+  <si>
+    <t>6363007208</t>
+  </si>
+  <si>
+    <t>Arun Nikkam</t>
+  </si>
+  <si>
+    <t>arunnikkam8@gmail.com</t>
+  </si>
+  <si>
+    <t>7676848988</t>
+  </si>
+  <si>
+    <t>J C E R, Belgaum</t>
+  </si>
+  <si>
+    <t>Prasad P Kulkarni</t>
+  </si>
+  <si>
+    <t>prasadpk028@gmail.com</t>
+  </si>
+  <si>
+    <t>9844642622</t>
+  </si>
+  <si>
+    <t>Tejashree C</t>
+  </si>
+  <si>
+    <t>tejashreeteja26@gmail.com</t>
+  </si>
+  <si>
+    <t>6361221027</t>
+  </si>
+  <si>
+    <t>Jyothy Institute of Technology</t>
   </si>
 </sst>
 </file>
@@ -6208,11 +6529,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G611"/>
+  <dimension ref="A1:G646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="K607" sqref="K607"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20272,6 +20591,811 @@
         <v>13</v>
       </c>
     </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D612" t="s">
+        <v>502</v>
+      </c>
+      <c r="E612" t="s">
+        <v>11</v>
+      </c>
+      <c r="F612" t="s">
+        <v>12</v>
+      </c>
+      <c r="G612" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D613" t="s">
+        <v>34</v>
+      </c>
+      <c r="E613" t="s">
+        <v>11</v>
+      </c>
+      <c r="F613" t="s">
+        <v>12</v>
+      </c>
+      <c r="G613" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A614" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D614" t="s">
+        <v>430</v>
+      </c>
+      <c r="E614" t="s">
+        <v>11</v>
+      </c>
+      <c r="F614" t="s">
+        <v>12</v>
+      </c>
+      <c r="G614" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E615" t="s">
+        <v>11</v>
+      </c>
+      <c r="F615" t="s">
+        <v>12</v>
+      </c>
+      <c r="G615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A616" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D616" t="s">
+        <v>46</v>
+      </c>
+      <c r="E616" t="s">
+        <v>11</v>
+      </c>
+      <c r="F616" t="s">
+        <v>12</v>
+      </c>
+      <c r="G616" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D617" t="s">
+        <v>611</v>
+      </c>
+      <c r="E617" t="s">
+        <v>11</v>
+      </c>
+      <c r="F617" t="s">
+        <v>12</v>
+      </c>
+      <c r="G617" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A618" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D618" t="s">
+        <v>10</v>
+      </c>
+      <c r="E618" t="s">
+        <v>11</v>
+      </c>
+      <c r="F618" t="s">
+        <v>12</v>
+      </c>
+      <c r="G618" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E619" t="s">
+        <v>11</v>
+      </c>
+      <c r="F619" t="s">
+        <v>12</v>
+      </c>
+      <c r="G619" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D620" t="s">
+        <v>195</v>
+      </c>
+      <c r="E620" t="s">
+        <v>18</v>
+      </c>
+      <c r="F620" t="s">
+        <v>12</v>
+      </c>
+      <c r="G620" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A621" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E621" t="s">
+        <v>11</v>
+      </c>
+      <c r="F621" t="s">
+        <v>12</v>
+      </c>
+      <c r="G621" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A622" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D622" t="s">
+        <v>882</v>
+      </c>
+      <c r="E622" t="s">
+        <v>11</v>
+      </c>
+      <c r="F622" t="s">
+        <v>12</v>
+      </c>
+      <c r="G622" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D623" t="s">
+        <v>58</v>
+      </c>
+      <c r="E623" t="s">
+        <v>18</v>
+      </c>
+      <c r="F623" t="s">
+        <v>12</v>
+      </c>
+      <c r="G623" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E624" t="s">
+        <v>11</v>
+      </c>
+      <c r="F624" t="s">
+        <v>12</v>
+      </c>
+      <c r="G624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D625" t="s">
+        <v>157</v>
+      </c>
+      <c r="E625" t="s">
+        <v>11</v>
+      </c>
+      <c r="F625" t="s">
+        <v>12</v>
+      </c>
+      <c r="G625" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D626" t="s">
+        <v>144</v>
+      </c>
+      <c r="E626" t="s">
+        <v>11</v>
+      </c>
+      <c r="F626" t="s">
+        <v>12</v>
+      </c>
+      <c r="G626" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D627" t="s">
+        <v>535</v>
+      </c>
+      <c r="E627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" t="s">
+        <v>12</v>
+      </c>
+      <c r="G627" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D628" t="s">
+        <v>17</v>
+      </c>
+      <c r="E628" t="s">
+        <v>18</v>
+      </c>
+      <c r="F628" t="s">
+        <v>12</v>
+      </c>
+      <c r="G628" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D629" t="s">
+        <v>535</v>
+      </c>
+      <c r="E629" t="s">
+        <v>11</v>
+      </c>
+      <c r="F629" t="s">
+        <v>12</v>
+      </c>
+      <c r="G629" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D630" t="s">
+        <v>535</v>
+      </c>
+      <c r="E630" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" t="s">
+        <v>12</v>
+      </c>
+      <c r="G630" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B631" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C631" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D631" t="s">
+        <v>195</v>
+      </c>
+      <c r="E631" t="s">
+        <v>11</v>
+      </c>
+      <c r="F631" t="s">
+        <v>12</v>
+      </c>
+      <c r="G631" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B632" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E632" t="s">
+        <v>11</v>
+      </c>
+      <c r="F632" t="s">
+        <v>12</v>
+      </c>
+      <c r="G632" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B633" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C633" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D633" t="s">
+        <v>10</v>
+      </c>
+      <c r="E633" t="s">
+        <v>11</v>
+      </c>
+      <c r="F633" t="s">
+        <v>12</v>
+      </c>
+      <c r="G633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D634" t="s">
+        <v>144</v>
+      </c>
+      <c r="E634" t="s">
+        <v>18</v>
+      </c>
+      <c r="F634" t="s">
+        <v>12</v>
+      </c>
+      <c r="G634" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C635" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D635" t="s">
+        <v>144</v>
+      </c>
+      <c r="E635" t="s">
+        <v>18</v>
+      </c>
+      <c r="F635" t="s">
+        <v>12</v>
+      </c>
+      <c r="G635" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B636" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C636" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E636" t="s">
+        <v>11</v>
+      </c>
+      <c r="F636" t="s">
+        <v>12</v>
+      </c>
+      <c r="G636" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B637" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D637" t="s">
+        <v>195</v>
+      </c>
+      <c r="E637" t="s">
+        <v>11</v>
+      </c>
+      <c r="F637" t="s">
+        <v>12</v>
+      </c>
+      <c r="G637" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B638" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C638" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D638" t="s">
+        <v>30</v>
+      </c>
+      <c r="E638" t="s">
+        <v>18</v>
+      </c>
+      <c r="F638" t="s">
+        <v>12</v>
+      </c>
+      <c r="G638" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B639" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C639" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D639" t="s">
+        <v>50</v>
+      </c>
+      <c r="E639" t="s">
+        <v>18</v>
+      </c>
+      <c r="F639" t="s">
+        <v>12</v>
+      </c>
+      <c r="G639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B640" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C640" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D640" t="s">
+        <v>73</v>
+      </c>
+      <c r="E640" t="s">
+        <v>11</v>
+      </c>
+      <c r="F640" t="s">
+        <v>12</v>
+      </c>
+      <c r="G640" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D641" t="s">
+        <v>73</v>
+      </c>
+      <c r="E641" t="s">
+        <v>18</v>
+      </c>
+      <c r="F641" t="s">
+        <v>12</v>
+      </c>
+      <c r="G641" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B642" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C642" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D642" t="s">
+        <v>95</v>
+      </c>
+      <c r="E642" t="s">
+        <v>11</v>
+      </c>
+      <c r="F642" t="s">
+        <v>12</v>
+      </c>
+      <c r="G642" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C643" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D643" t="s">
+        <v>997</v>
+      </c>
+      <c r="E643" t="s">
+        <v>11</v>
+      </c>
+      <c r="F643" t="s">
+        <v>12</v>
+      </c>
+      <c r="G643" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B644" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C644" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D644" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E644" t="s">
+        <v>11</v>
+      </c>
+      <c r="F644" t="s">
+        <v>12</v>
+      </c>
+      <c r="G644" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B645" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D645" t="s">
+        <v>133</v>
+      </c>
+      <c r="E645" t="s">
+        <v>11</v>
+      </c>
+      <c r="F645" t="s">
+        <v>12</v>
+      </c>
+      <c r="G645" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C646" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D646" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E646" t="s">
+        <v>11</v>
+      </c>
+      <c r="F646" t="s">
+        <v>12</v>
+      </c>
+      <c r="G646" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
